--- a/Textbooks, projects/Applied Math/labs/lab_4/var_17/lab_4_var_17.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_4/var_17/lab_4_var_17.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B925812-645C-4BE4-8601-FE1F521AD842}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA9364-A32E-448E-8164-C9EF1D45FB9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <f t="shared" ref="D9:D16" si="2">1/(SQRT(50-B10^2))</f>
+        <f t="shared" ref="D10:D16" si="2">1/(SQRT(50-B10^2))</f>
         <v>0.15207476616811838</v>
       </c>
       <c r="E10" s="3"/>
@@ -1311,7 +1311,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <f t="shared" ref="E10:E17" si="3">1/(SQRT(50-B11^2))</f>
+        <f t="shared" ref="E11:E17" si="3">1/(SQRT(50-B11^2))</f>
         <v>0.15401027590842437</v>
       </c>
     </row>

--- a/Textbooks, projects/Applied Math/labs/lab_4/var_17/lab_4_var_17.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_4/var_17/lab_4_var_17.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA9364-A32E-448E-8164-C9EF1D45FB9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AE18E-DCE4-4212-8758-DA44E5D19C8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
